--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H2">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I2">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J2">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1152486666666667</v>
+        <v>3.702912333333333</v>
       </c>
       <c r="N2">
-        <v>0.345746</v>
+        <v>11.108737</v>
       </c>
       <c r="O2">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447691</v>
       </c>
       <c r="P2">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447689</v>
       </c>
       <c r="Q2">
-        <v>0.05234279426977778</v>
+        <v>10.89001090568645</v>
       </c>
       <c r="R2">
-        <v>0.471085148428</v>
+        <v>98.010098151178</v>
       </c>
       <c r="S2">
-        <v>1.516477873234179E-06</v>
+        <v>0.000339301515238991</v>
       </c>
       <c r="T2">
-        <v>1.516477873234179E-06</v>
+        <v>0.0003393015152389909</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H3">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I3">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J3">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.019916</v>
       </c>
       <c r="O3">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="P3">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="Q3">
-        <v>0.003015100943111112</v>
+        <v>0.01952386281155555</v>
       </c>
       <c r="R3">
-        <v>0.027135908488</v>
+        <v>0.175714765304</v>
       </c>
       <c r="S3">
-        <v>8.735364493973004E-08</v>
+        <v>6.08307585056676E-07</v>
       </c>
       <c r="T3">
-        <v>8.735364493973006E-08</v>
+        <v>6.08307585056676E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H4">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I4">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J4">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>153.646004</v>
+        <v>301.3939006666666</v>
       </c>
       <c r="N4">
-        <v>460.938012</v>
+        <v>904.181702</v>
       </c>
       <c r="O4">
-        <v>0.3795310832320401</v>
+        <v>0.7995439048236145</v>
       </c>
       <c r="P4">
-        <v>0.3795310832320402</v>
+        <v>0.7995439048236146</v>
       </c>
       <c r="Q4">
-        <v>69.78181535935734</v>
+        <v>886.3787661461541</v>
       </c>
       <c r="R4">
-        <v>628.036338234216</v>
+        <v>7977.408895315388</v>
       </c>
       <c r="S4">
-        <v>0.002021722004392098</v>
+        <v>0.02761702086744602</v>
       </c>
       <c r="T4">
-        <v>0.002021722004392098</v>
+        <v>0.02761702086744602</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H5">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I5">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J5">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02990166666666667</v>
+        <v>0.075583</v>
       </c>
       <c r="N5">
-        <v>0.08970500000000001</v>
+        <v>0.226749</v>
       </c>
       <c r="O5">
-        <v>7.386207024585806E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="P5">
-        <v>7.386207024585807E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="Q5">
-        <v>0.01358051968777778</v>
+        <v>0.2222844129673333</v>
       </c>
       <c r="R5">
-        <v>0.12222467719</v>
+        <v>2.000559716706</v>
       </c>
       <c r="S5">
-        <v>3.934554488510988E-07</v>
+        <v>6.925744959028731E-06</v>
       </c>
       <c r="T5">
-        <v>3.934554488510988E-07</v>
+        <v>6.925744959028732E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H6">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I6">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J6">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.38673933333333</v>
+        <v>19.983405</v>
       </c>
       <c r="N6">
-        <v>79.160218</v>
+        <v>59.950215</v>
       </c>
       <c r="O6">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="P6">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="Q6">
-        <v>11.98413576765823</v>
+        <v>58.76982191119</v>
       </c>
       <c r="R6">
-        <v>107.857221908924</v>
+        <v>528.92839720071</v>
       </c>
       <c r="S6">
-        <v>0.0003472049395723854</v>
+        <v>0.001831099141909948</v>
       </c>
       <c r="T6">
-        <v>0.0003472049395723854</v>
+        <v>0.001831099141909947</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H7">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I7">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J7">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>224.6466153333333</v>
+        <v>51.79484666666666</v>
       </c>
       <c r="N7">
-        <v>673.939846</v>
+        <v>155.38454</v>
       </c>
       <c r="O7">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="P7">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="Q7">
-        <v>102.0283523435809</v>
+        <v>152.3250874671955</v>
       </c>
       <c r="R7">
-        <v>918.255171092228</v>
+        <v>1370.92578720476</v>
       </c>
       <c r="S7">
-        <v>0.002955970175648743</v>
+        <v>0.004746012968595224</v>
       </c>
       <c r="T7">
-        <v>0.002955970175648742</v>
+        <v>0.004746012968595222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>229.479935</v>
       </c>
       <c r="I8">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J8">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1152486666666667</v>
+        <v>3.702912333333333</v>
       </c>
       <c r="N8">
-        <v>0.345746</v>
+        <v>11.108737</v>
       </c>
       <c r="O8">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447691</v>
       </c>
       <c r="P8">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447689</v>
       </c>
       <c r="Q8">
-        <v>8.815752178501112</v>
+        <v>283.2480271880106</v>
       </c>
       <c r="R8">
-        <v>79.34176960651</v>
+        <v>2549.232244692095</v>
       </c>
       <c r="S8">
-        <v>0.0002554103826729024</v>
+        <v>0.008825196379111328</v>
       </c>
       <c r="T8">
-        <v>0.0002554103826729023</v>
+        <v>0.008825196379111328</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>229.479935</v>
       </c>
       <c r="I9">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J9">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.019916</v>
       </c>
       <c r="O9">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="P9">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="Q9">
         <v>0.5078135983844445</v>
@@ -1013,10 +1013,10 @@
         <v>4.57032238546</v>
       </c>
       <c r="S9">
-        <v>1.471239922172208E-05</v>
+        <v>1.582201568786634E-05</v>
       </c>
       <c r="T9">
-        <v>1.471239922172208E-05</v>
+        <v>1.582201568786634E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>229.479935</v>
       </c>
       <c r="I10">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J10">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.646004</v>
+        <v>301.3939006666666</v>
       </c>
       <c r="N10">
-        <v>460.938012</v>
+        <v>904.181702</v>
       </c>
       <c r="O10">
-        <v>0.3795310832320401</v>
+        <v>0.7995439048236145</v>
       </c>
       <c r="P10">
-        <v>0.3795310832320402</v>
+        <v>0.7995439048236146</v>
       </c>
       <c r="Q10">
-        <v>11752.89167030991</v>
+        <v>23054.61757812771</v>
       </c>
       <c r="R10">
-        <v>105776.0250327892</v>
+        <v>207491.5582031494</v>
       </c>
       <c r="S10">
-        <v>0.3405053248147682</v>
+        <v>0.7183157799621249</v>
       </c>
       <c r="T10">
-        <v>0.3405053248147682</v>
+        <v>0.7183157799621251</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>229.479935</v>
       </c>
       <c r="I11">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J11">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.02990166666666667</v>
+        <v>0.075583</v>
       </c>
       <c r="N11">
-        <v>0.08970500000000001</v>
+        <v>0.226749</v>
       </c>
       <c r="O11">
-        <v>7.386207024585806E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="P11">
-        <v>7.386207024585807E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="Q11">
-        <v>2.287277507686111</v>
+        <v>5.781593975701667</v>
       </c>
       <c r="R11">
-        <v>20.585497569175</v>
+        <v>52.034345781315</v>
       </c>
       <c r="S11">
-        <v>6.626711047321649E-05</v>
+        <v>0.0001801378909021894</v>
       </c>
       <c r="T11">
-        <v>6.626711047321649E-05</v>
+        <v>0.0001801378909021894</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>229.479935</v>
       </c>
       <c r="I12">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J12">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.38673933333333</v>
+        <v>19.983405</v>
       </c>
       <c r="N12">
-        <v>79.160218</v>
+        <v>59.950215</v>
       </c>
       <c r="O12">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="P12">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="Q12">
-        <v>2018.409075691759</v>
+        <v>1528.596826826225</v>
       </c>
       <c r="R12">
-        <v>18165.68168122583</v>
+        <v>13757.37144143603</v>
       </c>
       <c r="S12">
-        <v>0.05847744174003568</v>
+        <v>0.04762669422680055</v>
       </c>
       <c r="T12">
-        <v>0.05847744174003567</v>
+        <v>0.04762669422680055</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>229.479935</v>
       </c>
       <c r="I13">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J13">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>224.6466153333333</v>
+        <v>51.79484666666666</v>
       </c>
       <c r="N13">
-        <v>673.939846</v>
+        <v>155.38454</v>
       </c>
       <c r="O13">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="P13">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="Q13">
-        <v>17183.96356155445</v>
+        <v>3961.959348800544</v>
       </c>
       <c r="R13">
-        <v>154655.67205399</v>
+        <v>35657.6341392049</v>
       </c>
       <c r="S13">
-        <v>0.4978545925777215</v>
+        <v>0.1234432933084904</v>
       </c>
       <c r="T13">
-        <v>0.4978545925777215</v>
+        <v>0.1234432933084904</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H14">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I14">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J14">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1152486666666667</v>
+        <v>3.702912333333333</v>
       </c>
       <c r="N14">
-        <v>0.345746</v>
+        <v>11.108737</v>
       </c>
       <c r="O14">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447691</v>
       </c>
       <c r="P14">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447689</v>
       </c>
       <c r="Q14">
-        <v>0.1489652019271111</v>
+        <v>3.710934075751444</v>
       </c>
       <c r="R14">
-        <v>1.340686817344</v>
+        <v>33.398406681763</v>
       </c>
       <c r="S14">
-        <v>4.315826767673337E-06</v>
+        <v>0.0001156220655570685</v>
       </c>
       <c r="T14">
-        <v>4.315826767673336E-06</v>
+        <v>0.0001156220655570685</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H15">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I15">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J15">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.019916</v>
       </c>
       <c r="O15">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="P15">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="Q15">
-        <v>0.008580839580444446</v>
+        <v>0.006653048231555555</v>
       </c>
       <c r="R15">
-        <v>0.077227556224</v>
+        <v>0.05987743408399999</v>
       </c>
       <c r="S15">
-        <v>2.486044839419174E-07</v>
+        <v>2.072899068215024E-07</v>
       </c>
       <c r="T15">
-        <v>2.486044839419174E-07</v>
+        <v>2.072899068215025E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H16">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I16">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J16">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>153.646004</v>
+        <v>301.3939006666666</v>
       </c>
       <c r="N16">
-        <v>460.938012</v>
+        <v>904.181702</v>
       </c>
       <c r="O16">
-        <v>0.3795310832320401</v>
+        <v>0.7995439048236145</v>
       </c>
       <c r="P16">
-        <v>0.3795310832320402</v>
+        <v>0.7995439048236146</v>
       </c>
       <c r="Q16">
-        <v>198.5958594848853</v>
+        <v>302.0468203201441</v>
       </c>
       <c r="R16">
-        <v>1787.362735363968</v>
+        <v>2718.421382881298</v>
       </c>
       <c r="S16">
-        <v>0.005753728489780744</v>
+        <v>0.009410912871926466</v>
       </c>
       <c r="T16">
-        <v>0.005753728489780744</v>
+        <v>0.009410912871926469</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H17">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I17">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J17">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.02990166666666667</v>
+        <v>0.075583</v>
       </c>
       <c r="N17">
-        <v>0.08970500000000001</v>
+        <v>0.226749</v>
       </c>
       <c r="O17">
-        <v>7.386207024585806E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="P17">
-        <v>7.386207024585807E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="Q17">
-        <v>0.03864953879111112</v>
+        <v>0.07574673797233332</v>
       </c>
       <c r="R17">
-        <v>0.3478458491200001</v>
+        <v>0.681720641751</v>
       </c>
       <c r="S17">
-        <v>1.119756237799242E-06</v>
+        <v>2.360051169003257E-06</v>
       </c>
       <c r="T17">
-        <v>1.119756237799242E-06</v>
+        <v>2.360051169003258E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H18">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I18">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J18">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.38673933333333</v>
+        <v>19.983405</v>
       </c>
       <c r="N18">
-        <v>79.160218</v>
+        <v>59.950215</v>
       </c>
       <c r="O18">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="P18">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="Q18">
-        <v>34.1063030634169</v>
+        <v>20.026695716365</v>
       </c>
       <c r="R18">
-        <v>306.956727570752</v>
+        <v>180.240261447285</v>
       </c>
       <c r="S18">
-        <v>0.0009881294007139827</v>
+        <v>0.0006239744166137297</v>
       </c>
       <c r="T18">
-        <v>0.0009881294007139825</v>
+        <v>0.0006239744166137297</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H19">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I19">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J19">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>224.6466153333333</v>
+        <v>51.79484666666666</v>
       </c>
       <c r="N19">
-        <v>673.939846</v>
+        <v>155.38454</v>
       </c>
       <c r="O19">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="P19">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="Q19">
-        <v>290.3680309999716</v>
+        <v>51.90705156949555</v>
       </c>
       <c r="R19">
-        <v>2613.312278999744</v>
+        <v>467.1634641254599</v>
       </c>
       <c r="S19">
-        <v>0.008412556116826937</v>
+        <v>0.001617274895466059</v>
       </c>
       <c r="T19">
-        <v>0.008412556116826935</v>
+        <v>0.001617274895466059</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H20">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I20">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J20">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.1152486666666667</v>
+        <v>3.702912333333333</v>
       </c>
       <c r="N20">
-        <v>0.345746</v>
+        <v>11.108737</v>
       </c>
       <c r="O20">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447691</v>
       </c>
       <c r="P20">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447689</v>
       </c>
       <c r="Q20">
-        <v>0.6660895035528889</v>
+        <v>8.725993143267223</v>
       </c>
       <c r="R20">
-        <v>5.994805531976</v>
+        <v>78.533938289405</v>
       </c>
       <c r="S20">
-        <v>1.929797611731101E-05</v>
+        <v>0.0002718769265813683</v>
       </c>
       <c r="T20">
-        <v>1.9297976117311E-05</v>
+        <v>0.0002718769265813683</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H21">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I21">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J21">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.019916</v>
       </c>
       <c r="O21">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="P21">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="Q21">
-        <v>0.03836874049955556</v>
+        <v>0.01564416183777778</v>
       </c>
       <c r="R21">
-        <v>0.345318664496</v>
+        <v>0.14079745654</v>
       </c>
       <c r="S21">
-        <v>1.11162093661927E-06</v>
+        <v>4.874272268570704E-07</v>
       </c>
       <c r="T21">
-        <v>1.11162093661927E-06</v>
+        <v>4.874272268570704E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H22">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I22">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J22">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>153.646004</v>
+        <v>301.3939006666666</v>
       </c>
       <c r="N22">
-        <v>460.938012</v>
+        <v>904.181702</v>
       </c>
       <c r="O22">
-        <v>0.3795310832320401</v>
+        <v>0.7995439048236145</v>
       </c>
       <c r="P22">
-        <v>0.3795310832320402</v>
+        <v>0.7995439048236146</v>
       </c>
       <c r="Q22">
-        <v>888.0101912436745</v>
+        <v>710.2412571221811</v>
       </c>
       <c r="R22">
-        <v>7992.091721193071</v>
+        <v>6392.17131409963</v>
       </c>
       <c r="S22">
-        <v>0.02572747261613095</v>
+        <v>0.02212908111974121</v>
       </c>
       <c r="T22">
-        <v>0.02572747261613095</v>
+        <v>0.02212908111974122</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H23">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I23">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J23">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.02990166666666667</v>
+        <v>0.075583</v>
       </c>
       <c r="N23">
-        <v>0.08970500000000001</v>
+        <v>0.226749</v>
       </c>
       <c r="O23">
-        <v>7.386207024585806E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="P23">
-        <v>7.386207024585807E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="Q23">
-        <v>0.1728192341088889</v>
+        <v>0.1781129771316667</v>
       </c>
       <c r="R23">
-        <v>1.55537310698</v>
+        <v>1.603016794185</v>
       </c>
       <c r="S23">
-        <v>5.006926898947158E-06</v>
+        <v>5.549489669743615E-06</v>
       </c>
       <c r="T23">
-        <v>5.006926898947158E-06</v>
+        <v>5.549489669743617E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H24">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I24">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J24">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.38673933333333</v>
+        <v>19.983405</v>
       </c>
       <c r="N24">
-        <v>79.160218</v>
+        <v>59.950215</v>
       </c>
       <c r="O24">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="P24">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="Q24">
-        <v>152.5044116454231</v>
+        <v>47.091326856275</v>
       </c>
       <c r="R24">
-        <v>1372.539704808808</v>
+        <v>423.821941706475</v>
       </c>
       <c r="S24">
-        <v>0.004418364916456395</v>
+        <v>0.001467230721376539</v>
       </c>
       <c r="T24">
-        <v>0.004418364916456394</v>
+        <v>0.001467230721376539</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H25">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I25">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J25">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>224.6466153333333</v>
+        <v>51.79484666666666</v>
       </c>
       <c r="N25">
-        <v>673.939846</v>
+        <v>155.38454</v>
       </c>
       <c r="O25">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="P25">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="Q25">
-        <v>1298.364283163508</v>
+        <v>122.0556783916778</v>
       </c>
       <c r="R25">
-        <v>11685.27854847158</v>
+        <v>1098.5011055251</v>
       </c>
       <c r="S25">
-        <v>0.03761627047778501</v>
+        <v>0.003802904972316807</v>
       </c>
       <c r="T25">
-        <v>0.03761627047778501</v>
+        <v>0.003802904972316806</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.2778016666666667</v>
+        <v>0.5156633333333334</v>
       </c>
       <c r="H26">
-        <v>0.833405</v>
+        <v>1.54699</v>
       </c>
       <c r="I26">
-        <v>0.003258276538670325</v>
+        <v>0.006056418514425867</v>
       </c>
       <c r="J26">
-        <v>0.003258276538670324</v>
+        <v>0.006056418514425868</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.1152486666666667</v>
+        <v>3.702912333333333</v>
       </c>
       <c r="N26">
-        <v>0.345746</v>
+        <v>11.108737</v>
       </c>
       <c r="O26">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447691</v>
       </c>
       <c r="P26">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447689</v>
       </c>
       <c r="Q26">
-        <v>0.03201627168111111</v>
+        <v>1.909456116847778</v>
       </c>
       <c r="R26">
-        <v>0.28814644513</v>
+        <v>17.18510505163</v>
       </c>
       <c r="S26">
-        <v>9.275769141712116E-07</v>
+        <v>5.94931776781331E-05</v>
       </c>
       <c r="T26">
-        <v>9.275769141712113E-07</v>
+        <v>5.94931776781331E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.2778016666666667</v>
+        <v>0.5156633333333334</v>
       </c>
       <c r="H27">
-        <v>0.833405</v>
+        <v>1.54699</v>
       </c>
       <c r="I27">
-        <v>0.003258276538670325</v>
+        <v>0.006056418514425867</v>
       </c>
       <c r="J27">
-        <v>0.003258276538670324</v>
+        <v>0.006056418514425868</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.019916</v>
       </c>
       <c r="O27">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="P27">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="Q27">
-        <v>0.001844232664444444</v>
+        <v>0.003423316982222222</v>
       </c>
       <c r="R27">
-        <v>0.01659809398</v>
+        <v>0.03080985284</v>
       </c>
       <c r="S27">
-        <v>5.343119464182911E-08</v>
+        <v>1.066607415980501E-07</v>
       </c>
       <c r="T27">
-        <v>5.343119464182911E-08</v>
+        <v>1.066607415980501E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.2778016666666667</v>
+        <v>0.5156633333333334</v>
       </c>
       <c r="H28">
-        <v>0.833405</v>
+        <v>1.54699</v>
       </c>
       <c r="I28">
-        <v>0.003258276538670325</v>
+        <v>0.006056418514425867</v>
       </c>
       <c r="J28">
-        <v>0.003258276538670324</v>
+        <v>0.006056418514425868</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>153.646004</v>
+        <v>301.3939006666666</v>
       </c>
       <c r="N28">
-        <v>460.938012</v>
+        <v>904.181702</v>
       </c>
       <c r="O28">
-        <v>0.3795310832320401</v>
+        <v>0.7995439048236145</v>
       </c>
       <c r="P28">
-        <v>0.3795310832320402</v>
+        <v>0.7995439048236146</v>
       </c>
       <c r="Q28">
-        <v>42.68311598787333</v>
+        <v>155.4177834641089</v>
       </c>
       <c r="R28">
-        <v>384.1480438908599</v>
+        <v>1398.76005117698</v>
       </c>
       <c r="S28">
-        <v>0.001236617224191091</v>
+        <v>0.004842372508270092</v>
       </c>
       <c r="T28">
-        <v>0.001236617224191091</v>
+        <v>0.004842372508270094</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.2778016666666667</v>
+        <v>0.5156633333333334</v>
       </c>
       <c r="H29">
-        <v>0.833405</v>
+        <v>1.54699</v>
       </c>
       <c r="I29">
-        <v>0.003258276538670325</v>
+        <v>0.006056418514425867</v>
       </c>
       <c r="J29">
-        <v>0.003258276538670324</v>
+        <v>0.006056418514425868</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.02990166666666667</v>
+        <v>0.075583</v>
       </c>
       <c r="N29">
-        <v>0.08970500000000001</v>
+        <v>0.226749</v>
       </c>
       <c r="O29">
-        <v>7.386207024585806E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="P29">
-        <v>7.386207024585807E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="Q29">
-        <v>0.008306732836111112</v>
+        <v>0.03897538172333333</v>
       </c>
       <c r="R29">
-        <v>0.074760595525</v>
+        <v>0.35077843551</v>
       </c>
       <c r="S29">
-        <v>2.406630505796988E-07</v>
+        <v>1.214361141625641E-06</v>
       </c>
       <c r="T29">
-        <v>2.406630505796988E-07</v>
+        <v>1.214361141625642E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.2778016666666667</v>
+        <v>0.5156633333333334</v>
       </c>
       <c r="H30">
-        <v>0.833405</v>
+        <v>1.54699</v>
       </c>
       <c r="I30">
-        <v>0.003258276538670325</v>
+        <v>0.006056418514425867</v>
       </c>
       <c r="J30">
-        <v>0.003258276538670324</v>
+        <v>0.006056418514425868</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>26.38673933333333</v>
+        <v>19.983405</v>
       </c>
       <c r="N30">
-        <v>79.160218</v>
+        <v>59.950215</v>
       </c>
       <c r="O30">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="P30">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="Q30">
-        <v>7.330280164698889</v>
+        <v>10.30470923365</v>
       </c>
       <c r="R30">
-        <v>65.97252148228999</v>
+        <v>92.74238310285</v>
       </c>
       <c r="S30">
-        <v>0.0002123732183092802</v>
+        <v>0.0003210651933552194</v>
       </c>
       <c r="T30">
-        <v>0.0002123732183092802</v>
+        <v>0.0003210651933552194</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.2778016666666667</v>
+        <v>0.5156633333333334</v>
       </c>
       <c r="H31">
-        <v>0.833405</v>
+        <v>1.54699</v>
       </c>
       <c r="I31">
-        <v>0.003258276538670325</v>
+        <v>0.006056418514425867</v>
       </c>
       <c r="J31">
-        <v>0.003258276538670324</v>
+        <v>0.006056418514425868</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>224.6466153333333</v>
+        <v>51.79484666666666</v>
       </c>
       <c r="N31">
-        <v>673.939846</v>
+        <v>155.38454</v>
       </c>
       <c r="O31">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="P31">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="Q31">
-        <v>62.40720415062555</v>
+        <v>26.70870328162222</v>
       </c>
       <c r="R31">
-        <v>561.66483735563</v>
+        <v>240.3783295346</v>
       </c>
       <c r="S31">
-        <v>0.001808064425010562</v>
+        <v>0.000832166613239199</v>
       </c>
       <c r="T31">
-        <v>0.001808064425010561</v>
+        <v>0.0008321666132391989</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.834685</v>
+      </c>
+      <c r="H32">
+        <v>5.504055</v>
+      </c>
+      <c r="I32">
+        <v>0.02154820690917088</v>
+      </c>
+      <c r="J32">
+        <v>0.02154820690917089</v>
+      </c>
+      <c r="K32">
         <v>2</v>
       </c>
-      <c r="F32">
+      <c r="L32">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G32">
-        <v>0.9628836666666668</v>
-      </c>
-      <c r="H32">
-        <v>2.888651</v>
-      </c>
-      <c r="I32">
-        <v>0.01129345730072003</v>
-      </c>
-      <c r="J32">
-        <v>0.01129345730072002</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
       <c r="M32">
-        <v>0.1152486666666667</v>
+        <v>3.702912333333333</v>
       </c>
       <c r="N32">
-        <v>0.345746</v>
+        <v>11.108737</v>
       </c>
       <c r="O32">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447691</v>
       </c>
       <c r="P32">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447689</v>
       </c>
       <c r="Q32">
-        <v>0.1109710587384445</v>
+        <v>6.793677714281667</v>
       </c>
       <c r="R32">
-        <v>0.9987395286460001</v>
+        <v>61.143099428535</v>
       </c>
       <c r="S32">
-        <v>3.215058681790468E-06</v>
+        <v>0.0002116715182808013</v>
       </c>
       <c r="T32">
-        <v>3.215058681790467E-06</v>
+        <v>0.0002116715182808013</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.9628836666666668</v>
+        <v>1.834685</v>
       </c>
       <c r="H33">
-        <v>2.888651</v>
+        <v>5.504055</v>
       </c>
       <c r="I33">
-        <v>0.01129345730072003</v>
+        <v>0.02154820690917088</v>
       </c>
       <c r="J33">
-        <v>0.01129345730072002</v>
+        <v>0.02154820690917089</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.019916</v>
       </c>
       <c r="O33">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="P33">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="Q33">
-        <v>0.006392263701777779</v>
+        <v>0.01217986215333334</v>
       </c>
       <c r="R33">
-        <v>0.05753037331600001</v>
+        <v>0.10961875938</v>
       </c>
       <c r="S33">
-        <v>1.851969616612743E-07</v>
+        <v>3.794895817661755E-07</v>
       </c>
       <c r="T33">
-        <v>1.851969616612743E-07</v>
+        <v>3.794895817661755E-07</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.9628836666666668</v>
+        <v>1.834685</v>
       </c>
       <c r="H34">
-        <v>2.888651</v>
+        <v>5.504055</v>
       </c>
       <c r="I34">
-        <v>0.01129345730072003</v>
+        <v>0.02154820690917088</v>
       </c>
       <c r="J34">
-        <v>0.01129345730072002</v>
+        <v>0.02154820690917089</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>153.646004</v>
+        <v>301.3939006666666</v>
       </c>
       <c r="N34">
-        <v>460.938012</v>
+        <v>904.181702</v>
       </c>
       <c r="O34">
-        <v>0.3795310832320401</v>
+        <v>0.7995439048236145</v>
       </c>
       <c r="P34">
-        <v>0.3795310832320402</v>
+        <v>0.7995439048236146</v>
       </c>
       <c r="Q34">
-        <v>147.9432277002013</v>
+        <v>552.9628686446233</v>
       </c>
       <c r="R34">
-        <v>1331.489049301812</v>
+        <v>4976.66581780161</v>
       </c>
       <c r="S34">
-        <v>0.004286218082777063</v>
+        <v>0.01722873749410568</v>
       </c>
       <c r="T34">
-        <v>0.004286218082777063</v>
+        <v>0.01722873749410568</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.9628836666666668</v>
+        <v>1.834685</v>
       </c>
       <c r="H35">
-        <v>2.888651</v>
+        <v>5.504055</v>
       </c>
       <c r="I35">
-        <v>0.01129345730072003</v>
+        <v>0.02154820690917088</v>
       </c>
       <c r="J35">
-        <v>0.01129345730072002</v>
+        <v>0.02154820690917089</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0.02990166666666667</v>
+        <v>0.075583</v>
       </c>
       <c r="N35">
-        <v>0.08970500000000001</v>
+        <v>0.226749</v>
       </c>
       <c r="O35">
-        <v>7.386207024585806E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="P35">
-        <v>7.386207024585807E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="Q35">
-        <v>0.02879182643944445</v>
+        <v>0.138670996355</v>
       </c>
       <c r="R35">
-        <v>0.2591264379550001</v>
+        <v>1.248038967195</v>
       </c>
       <c r="S35">
-        <v>8.341581364643811E-07</v>
+        <v>4.320590639480746E-06</v>
       </c>
       <c r="T35">
-        <v>8.34158136464381E-07</v>
+        <v>4.320590639480746E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.9628836666666668</v>
+        <v>1.834685</v>
       </c>
       <c r="H36">
-        <v>2.888651</v>
+        <v>5.504055</v>
       </c>
       <c r="I36">
-        <v>0.01129345730072003</v>
+        <v>0.02154820690917088</v>
       </c>
       <c r="J36">
-        <v>0.01129345730072002</v>
+        <v>0.02154820690917089</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>26.38673933333333</v>
+        <v>19.983405</v>
       </c>
       <c r="N36">
-        <v>79.160218</v>
+        <v>59.950215</v>
       </c>
       <c r="O36">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="P36">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="Q36">
-        <v>25.40736032065756</v>
+        <v>36.66325340242501</v>
       </c>
       <c r="R36">
-        <v>228.666242885918</v>
+        <v>329.969280621825</v>
       </c>
       <c r="S36">
-        <v>0.0007361032264533099</v>
+        <v>0.001142321852638196</v>
       </c>
       <c r="T36">
-        <v>0.0007361032264533097</v>
+        <v>0.001142321852638196</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.9628836666666668</v>
+        <v>1.834685</v>
       </c>
       <c r="H37">
-        <v>2.888651</v>
+        <v>5.504055</v>
       </c>
       <c r="I37">
-        <v>0.01129345730072003</v>
+        <v>0.02154820690917088</v>
       </c>
       <c r="J37">
-        <v>0.01129345730072002</v>
+        <v>0.02154820690917089</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>224.6466153333333</v>
+        <v>51.79484666666666</v>
       </c>
       <c r="N37">
-        <v>673.939846</v>
+        <v>155.38454</v>
       </c>
       <c r="O37">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="P37">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="Q37">
-        <v>216.3085566764163</v>
+        <v>95.02722825663334</v>
       </c>
       <c r="R37">
-        <v>1946.777010087746</v>
+        <v>855.2450543097</v>
       </c>
       <c r="S37">
-        <v>0.006266901577709738</v>
+        <v>0.002960775963924963</v>
       </c>
       <c r="T37">
-        <v>0.006266901577709736</v>
+        <v>0.002960775963924963</v>
       </c>
     </row>
   </sheetData>
